--- a/10-razpredelnice/rezultati.xlsx
+++ b/10-razpredelnice/rezultati.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rosk/RP/racunalniski-praktikum/10-razpredelnice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B792D43-4533-1247-BE79-A784C396917B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA43174-5472-184D-80D0-A1D8DE3491A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="16360" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29100" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rezultati" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId2"/>
+    <pivotCache cacheId="2" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -793,7 +793,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -803,6 +803,46 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -831,11 +871,99 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -844,10 +972,7 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -914,47 +1039,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-SI"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -1002,62 +1091,12 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-SI"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -1065,62 +1104,12 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-SI"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -1128,62 +1117,12 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln w="25400">
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-          <a:sp3d contourW="25400">
-            <a:contourClr>
-              <a:schemeClr val="lt1"/>
-            </a:contourClr>
-          </a:sp3d>
-        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-SI"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
+          <c:delete val="1"/>
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
@@ -1386,6 +1325,177 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -1699,6 +1809,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-04E3-AE4F-802C-938AFA18690C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1719,6 +1834,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-04E3-AE4F-802C-938AFA18690C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1739,6 +1859,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-04E3-AE4F-802C-938AFA18690C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1814,6 +1939,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-04E3-AE4F-802C-938AFA18690C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1834,6 +1964,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-04E3-AE4F-802C-938AFA18690C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1854,6 +1989,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-04E3-AE4F-802C-938AFA18690C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1929,6 +2069,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-04E3-AE4F-802C-938AFA18690C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1949,6 +2094,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-04E3-AE4F-802C-938AFA18690C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1969,6 +2119,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-04E3-AE4F-802C-938AFA18690C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2689,566 +2844,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4118,7 +3714,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1AFF0380-9238-A04F-83B5-8AF3CEBFEDE1}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Skupaj" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Skupina">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1AFF0380-9238-A04F-83B5-8AF3CEBFEDE1}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Skupaj" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Skupina">
   <location ref="H7:L10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -4203,14 +3799,14 @@
     <dataField name="Minimum" fld="3" subtotal="min" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="7">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="27">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4220,7 +3816,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="26">
       <pivotArea field="2" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -4230,7 +3826,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="7">
+  <chartFormats count="16">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -4303,6 +3899,114 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4340,10 +4044,10 @@
   <autoFilter ref="H2:K5" xr:uid="{BAD53C94-4DD0-B043-8002-9273766F5DC7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{26F1C940-A3E1-AA4A-B91A-EA859D7A62AD}" name="Skupina"/>
-    <tableColumn id="2" xr3:uid="{EA7356A2-0D38-5D42-A1AC-E30DC5D5C796}" name="Udeležba" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{EA7356A2-0D38-5D42-A1AC-E30DC5D5C796}" name="Udeležba" dataDxfId="25">
       <calculatedColumnFormula>COUNTIF(Rezultati[Skupina], H3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{49F9352C-9597-4E44-8122-AF1CE6CE856F}" name="2022" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{49F9352C-9597-4E44-8122-AF1CE6CE856F}" name="2022" dataDxfId="24">
       <calculatedColumnFormula>AVERAGEIF(Rezultati[Skupina], H3, Rezultati[Točke])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{B0EFA30B-7FCE-C547-8EC0-FF89353D2666}" name="2021"/>
@@ -4642,7 +4346,7 @@
   <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C30"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5297,25 +5001,17 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>"$E3&lt;50"</formula>
+  <conditionalFormatting sqref="B3:C30">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$E3&lt;50</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>"$E3&lt;50"</formula>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>$E3&gt;70</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E30">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>"$E3&lt;50"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>E3&lt;50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C30">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$E3&lt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
